--- a/outputs/plot level understory model tables.xlsx
+++ b/outputs/plot level understory model tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Research\MS Thesis\Understory\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D046866C-9D21-402D-9988-4EA77AC6C2F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0C02C-4172-43E9-8BD6-F3B9BAE8A1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2565" windowWidth="18000" windowHeight="9375" xr2:uid="{EB1A2302-6298-4F3D-9602-6703D51BA1AA}"/>
+    <workbookView xWindow="4605" yWindow="1350" windowWidth="16200" windowHeight="9375" xr2:uid="{EB1A2302-6298-4F3D-9602-6703D51BA1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -240,9 +240,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,36 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,19 +599,19 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="A1:E44"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -632,16 +632,16 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="15">
         <v>0.36513099999999998</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="15">
         <v>2.2183999999999999E-2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="14">
         <v>16.449000000000002</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -649,16 +649,16 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>-5.3859999999999998E-2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <v>1.3192000000000001E-2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>-4.0019999999999998</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -666,16 +666,16 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>-4.5346999999999998E-2</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>1.421E-2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="14">
         <v>-3.157</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -683,16 +683,16 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>-1.6934999999999999E-2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>2.2256999999999999E-2</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>-0.751</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>0.45743800000000001</v>
       </c>
     </row>
@@ -700,16 +700,16 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>-1.325E-3</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>9.9659999999999992E-3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <v>0.89501399999999998</v>
       </c>
     </row>
@@ -717,34 +717,34 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>1.67E-3</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>1.0442999999999999E-2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="10">
         <v>0.158</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <v>0.87514099999999995</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -771,7 +771,7 @@
       <c r="C12" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="12">
         <v>19.102</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -788,7 +788,7 @@
       <c r="C13" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="13">
         <v>-0.44400000000000001</v>
       </c>
       <c r="E13" s="4">
@@ -805,7 +805,7 @@
       <c r="C14" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="13">
         <v>-0.47</v>
       </c>
       <c r="E14" s="4">
@@ -822,7 +822,7 @@
       <c r="C15" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="13">
         <v>-0.20300000000000001</v>
       </c>
       <c r="E15" s="4">
@@ -839,7 +839,7 @@
       <c r="C16" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="13">
         <v>-0.52700000000000002</v>
       </c>
       <c r="E16" s="4">
@@ -856,7 +856,7 @@
       <c r="C17" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="12">
         <v>-2.6720000000000002</v>
       </c>
       <c r="E17" s="5">
@@ -864,20 +864,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -904,7 +904,7 @@
       <c r="C21" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="12">
         <v>4.3959999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -921,7 +921,7 @@
       <c r="C22" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="13">
         <v>-1.597</v>
       </c>
       <c r="E22" s="4">
@@ -938,7 +938,7 @@
       <c r="C23" s="4">
         <v>0.01</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="13">
         <v>-0.57399999999999995</v>
       </c>
       <c r="E23" s="4">
@@ -955,7 +955,7 @@
       <c r="C24" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="13">
         <v>0.98699999999999999</v>
       </c>
       <c r="E24" s="4">
@@ -972,7 +972,7 @@
       <c r="C25" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="13">
         <v>-1.6910000000000001</v>
       </c>
       <c r="E25" s="4">
@@ -989,7 +989,7 @@
       <c r="C26" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="12">
         <v>-4.2430000000000003</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -997,20 +997,20 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1037,7 +1037,7 @@
       <c r="C30" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="12">
         <v>6.8959999999999999</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -1054,7 +1054,7 @@
       <c r="C31" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="12">
         <v>-2.3490000000000002</v>
       </c>
       <c r="E31" s="5">
@@ -1071,7 +1071,7 @@
       <c r="C32" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="13">
         <v>-1.3260000000000001</v>
       </c>
       <c r="E32" s="4">
@@ -1088,7 +1088,7 @@
       <c r="C33" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="13">
         <v>-0.35499999999999998</v>
       </c>
       <c r="E33" s="4">
@@ -1105,7 +1105,7 @@
       <c r="C34" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="13">
         <v>1.484</v>
       </c>
       <c r="E34" s="4">
@@ -1122,7 +1122,7 @@
       <c r="C35" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="13">
         <v>1.2509999999999999</v>
       </c>
       <c r="E35" s="4">
@@ -1130,20 +1130,20 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="C39" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="12">
         <v>7.5309999999999997</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -1187,7 +1187,7 @@
       <c r="C40" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="12">
         <v>-3.7610000000000001</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -1204,7 +1204,7 @@
       <c r="C41" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="13">
         <v>-2.528</v>
       </c>
       <c r="E41" s="4">
@@ -1221,7 +1221,7 @@
       <c r="C42" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="13">
         <v>-1.577</v>
       </c>
       <c r="E42" s="4">
@@ -1238,7 +1238,7 @@
       <c r="C43" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="13">
         <v>1.528</v>
       </c>
       <c r="E43" s="4">
@@ -1255,7 +1255,7 @@
       <c r="C44" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="13">
         <v>0.40699999999999997</v>
       </c>
       <c r="E44" s="4">
@@ -1264,14 +1264,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
